--- a/covid.xlsx
+++ b/covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="covid" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9139" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10608" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>Loss_of_taste</t>
   </si>
+  <si>
+    <t>es</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +121,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +129,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,28 +446,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W419"/>
+  <dimension ref="A1:W488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N397" sqref="N397"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="2" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="17.77734375" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" customWidth="1"/>
+    <col min="20" max="20" width="17.796875" customWidth="1"/>
+    <col min="21" max="21" width="17.8984375" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -606,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -677,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -819,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -890,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -961,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8061,7 +8064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -10049,7 +10052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -10830,7 +10833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -11114,7 +11117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -11469,7 +11472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -11682,7 +11685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -11753,7 +11756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -12818,7 +12821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -12960,7 +12963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -13031,7 +13034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -13173,7 +13176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -13386,7 +13389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -13528,7 +13531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -13599,7 +13602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -13883,7 +13886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -13954,7 +13957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -14025,7 +14028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -14096,7 +14099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -14167,7 +14170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -14238,7 +14241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -14309,7 +14312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -14380,7 +14383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -14522,7 +14525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -14593,7 +14596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -14664,7 +14667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -14806,7 +14809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -14948,7 +14951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -15232,7 +15235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -15303,7 +15306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -15374,7 +15377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -15516,7 +15519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -15587,7 +15590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -15658,7 +15661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -15729,7 +15732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -15800,7 +15803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -15942,7 +15945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -16013,7 +16016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -16084,7 +16087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -16155,7 +16158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -16226,7 +16229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -16297,7 +16300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -16368,7 +16371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -16439,7 +16442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -16510,7 +16513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -16581,7 +16584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -16723,7 +16726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -16794,7 +16797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -16865,7 +16868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -16936,7 +16939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -17007,7 +17010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -17078,7 +17081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -17149,7 +17152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -17220,7 +17223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -17291,7 +17294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -17362,7 +17365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -17433,7 +17436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -17504,7 +17507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -17646,7 +17649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -17717,7 +17720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -17788,7 +17791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -17859,7 +17862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -17930,7 +17933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -18001,7 +18004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -18072,7 +18075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -18214,7 +18217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -18285,7 +18288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -18356,7 +18359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -18427,7 +18430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -18498,7 +18501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -18569,7 +18572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -18640,7 +18643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -18711,7 +18714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -18782,7 +18785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -18853,7 +18856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -18924,7 +18927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -18995,7 +18998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -19066,7 +19069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -19137,7 +19140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -19208,7 +19211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -19279,7 +19282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -19350,7 +19353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -19421,7 +19424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -19492,7 +19495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -19563,7 +19566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -19634,7 +19637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -19705,7 +19708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -19776,7 +19779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -19847,7 +19850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -19918,7 +19921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -19989,7 +19992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -20060,7 +20063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -20131,7 +20134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -20202,7 +20205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -20344,7 +20347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -20415,7 +20418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -20486,7 +20489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -20557,7 +20560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -20628,7 +20631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -20770,7 +20773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -20841,7 +20844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -20912,7 +20915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -20983,7 +20986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -21054,7 +21057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -21196,7 +21199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -21267,7 +21270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -21338,7 +21341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -21409,7 +21412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -21551,7 +21554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -21622,7 +21625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -21693,7 +21696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -21764,7 +21767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -21835,7 +21838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -21906,7 +21909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -21977,7 +21980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -22048,7 +22051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -22119,7 +22122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -22190,7 +22193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -22261,7 +22264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -22332,7 +22335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -22403,7 +22406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -22474,7 +22477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -22545,7 +22548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -22687,7 +22690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -22758,7 +22761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -22829,7 +22832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -22900,7 +22903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -22971,7 +22974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -23042,7 +23045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -23113,7 +23116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -23184,7 +23187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -23255,7 +23258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -23326,7 +23329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -23397,7 +23400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -23468,7 +23471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -23539,7 +23542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -23610,7 +23613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -23681,7 +23684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -23752,7 +23755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -23823,7 +23826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -23894,7 +23897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -23965,7 +23968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -24036,7 +24039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -24107,7 +24110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -24178,7 +24181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -24249,7 +24252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -24320,7 +24323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -24391,7 +24394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -24462,7 +24465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -24533,7 +24536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -24604,7 +24607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -24675,7 +24678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -24746,7 +24749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -24817,7 +24820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -24888,7 +24891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -24959,7 +24962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -25030,7 +25033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -25101,7 +25104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -25172,7 +25175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -25243,7 +25246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -25314,7 +25317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -25385,7 +25388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -25456,7 +25459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -25527,7 +25530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -25598,7 +25601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -25669,7 +25672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -25740,7 +25743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -25811,7 +25814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -25882,7 +25885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -25953,7 +25956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -26024,7 +26027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -26095,7 +26098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -26166,7 +26169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -26237,7 +26240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -26308,7 +26311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -26379,7 +26382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -26450,7 +26453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -26521,7 +26524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -26592,7 +26595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -26663,7 +26666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -26734,7 +26737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -26805,7 +26808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -26876,7 +26879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -26947,7 +26950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -27018,7 +27021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -27089,7 +27092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -27160,7 +27163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -27231,7 +27234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -27302,7 +27305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -27373,7 +27376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -27444,7 +27447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -27515,7 +27518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -27586,7 +27589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -27657,7 +27660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -27728,7 +27731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -27799,7 +27802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -27870,7 +27873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -27941,7 +27944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -28012,7 +28015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -28083,7 +28086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -28154,7 +28157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -28225,7 +28228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -28296,7 +28299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -28367,7 +28370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -28438,7 +28441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -28509,7 +28512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -28580,7 +28583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -28651,7 +28654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -28661,9 +28664,7 @@
       <c r="C398" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D398" s="1"/>
       <c r="E398" s="1" t="s">
         <v>3</v>
       </c>
@@ -28722,7 +28723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -28793,7 +28794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -28864,7 +28865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -28935,7 +28936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -29006,7 +29007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -29077,7 +29078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -29148,7 +29149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -29219,7 +29220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -29290,7 +29291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -29361,7 +29362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -29432,7 +29433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -29503,7 +29504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -29574,7 +29575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -29716,7 +29717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -29787,7 +29788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -29858,7 +29859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -29929,7 +29930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -30000,7 +30001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -30071,7 +30072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -30142,8 +30143,4975 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A419" s="2"/>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>33</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
+      <c r="D419" t="s">
+        <v>3</v>
+      </c>
+      <c r="E419" t="s">
+        <v>3</v>
+      </c>
+      <c r="F419" t="s">
+        <v>3</v>
+      </c>
+      <c r="G419" t="s">
+        <v>2</v>
+      </c>
+      <c r="H419" t="s">
+        <v>3</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2</v>
+      </c>
+      <c r="J419" t="s">
+        <v>2</v>
+      </c>
+      <c r="K419" t="s">
+        <v>2</v>
+      </c>
+      <c r="L419" t="s">
+        <v>2</v>
+      </c>
+      <c r="M419" t="s">
+        <v>2</v>
+      </c>
+      <c r="N419" t="s">
+        <v>3</v>
+      </c>
+      <c r="O419" t="s">
+        <v>2</v>
+      </c>
+      <c r="P419" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>3</v>
+      </c>
+      <c r="R419" t="s">
+        <v>3</v>
+      </c>
+      <c r="S419" t="s">
+        <v>3</v>
+      </c>
+      <c r="T419" t="s">
+        <v>2</v>
+      </c>
+      <c r="U419" t="s">
+        <v>2</v>
+      </c>
+      <c r="V419" t="s">
+        <v>2</v>
+      </c>
+      <c r="W419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>30</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2</v>
+      </c>
+      <c r="E420" t="s">
+        <v>3</v>
+      </c>
+      <c r="F420" t="s">
+        <v>3</v>
+      </c>
+      <c r="G420" t="s">
+        <v>2</v>
+      </c>
+      <c r="H420" t="s">
+        <v>3</v>
+      </c>
+      <c r="I420" t="s">
+        <v>2</v>
+      </c>
+      <c r="J420" t="s">
+        <v>2</v>
+      </c>
+      <c r="K420" t="s">
+        <v>2</v>
+      </c>
+      <c r="L420" t="s">
+        <v>2</v>
+      </c>
+      <c r="M420" t="s">
+        <v>2</v>
+      </c>
+      <c r="N420" t="s">
+        <v>2</v>
+      </c>
+      <c r="O420" t="s">
+        <v>3</v>
+      </c>
+      <c r="P420" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>3</v>
+      </c>
+      <c r="R420" t="s">
+        <v>3</v>
+      </c>
+      <c r="S420" t="s">
+        <v>3</v>
+      </c>
+      <c r="T420" t="s">
+        <v>2</v>
+      </c>
+      <c r="U420" t="s">
+        <v>3</v>
+      </c>
+      <c r="V420" t="s">
+        <v>3</v>
+      </c>
+      <c r="W420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>33</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" t="s">
+        <v>3</v>
+      </c>
+      <c r="F421" t="s">
+        <v>3</v>
+      </c>
+      <c r="G421" t="s">
+        <v>2</v>
+      </c>
+      <c r="H421" t="s">
+        <v>3</v>
+      </c>
+      <c r="I421" t="s">
+        <v>2</v>
+      </c>
+      <c r="J421" t="s">
+        <v>2</v>
+      </c>
+      <c r="K421" t="s">
+        <v>2</v>
+      </c>
+      <c r="L421" t="s">
+        <v>2</v>
+      </c>
+      <c r="M421" t="s">
+        <v>2</v>
+      </c>
+      <c r="N421" t="s">
+        <v>3</v>
+      </c>
+      <c r="O421" t="s">
+        <v>2</v>
+      </c>
+      <c r="P421" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>3</v>
+      </c>
+      <c r="R421" t="s">
+        <v>3</v>
+      </c>
+      <c r="S421" t="s">
+        <v>3</v>
+      </c>
+      <c r="T421" t="s">
+        <v>2</v>
+      </c>
+      <c r="U421" t="s">
+        <v>2</v>
+      </c>
+      <c r="V421" t="s">
+        <v>2</v>
+      </c>
+      <c r="W421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>27</v>
+      </c>
+      <c r="C422" t="s">
+        <v>3</v>
+      </c>
+      <c r="D422" t="s">
+        <v>3</v>
+      </c>
+      <c r="E422" t="s">
+        <v>3</v>
+      </c>
+      <c r="F422" t="s">
+        <v>3</v>
+      </c>
+      <c r="G422" t="s">
+        <v>2</v>
+      </c>
+      <c r="H422" t="s">
+        <v>3</v>
+      </c>
+      <c r="I422" t="s">
+        <v>2</v>
+      </c>
+      <c r="J422" t="s">
+        <v>2</v>
+      </c>
+      <c r="K422" t="s">
+        <v>3</v>
+      </c>
+      <c r="L422" t="s">
+        <v>2</v>
+      </c>
+      <c r="M422" t="s">
+        <v>2</v>
+      </c>
+      <c r="N422" t="s">
+        <v>3</v>
+      </c>
+      <c r="O422" t="s">
+        <v>2</v>
+      </c>
+      <c r="P422" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>3</v>
+      </c>
+      <c r="R422" t="s">
+        <v>3</v>
+      </c>
+      <c r="S422" t="s">
+        <v>3</v>
+      </c>
+      <c r="T422" t="s">
+        <v>3</v>
+      </c>
+      <c r="U422" t="s">
+        <v>3</v>
+      </c>
+      <c r="V422" t="s">
+        <v>3</v>
+      </c>
+      <c r="W422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>31</v>
+      </c>
+      <c r="C423" t="s">
+        <v>3</v>
+      </c>
+      <c r="D423" t="s">
+        <v>2</v>
+      </c>
+      <c r="E423" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" t="s">
+        <v>3</v>
+      </c>
+      <c r="G423" t="s">
+        <v>2</v>
+      </c>
+      <c r="H423" t="s">
+        <v>3</v>
+      </c>
+      <c r="I423" t="s">
+        <v>2</v>
+      </c>
+      <c r="J423" t="s">
+        <v>2</v>
+      </c>
+      <c r="K423" t="s">
+        <v>2</v>
+      </c>
+      <c r="L423" t="s">
+        <v>2</v>
+      </c>
+      <c r="M423" t="s">
+        <v>2</v>
+      </c>
+      <c r="N423" t="s">
+        <v>2</v>
+      </c>
+      <c r="O423" t="s">
+        <v>2</v>
+      </c>
+      <c r="P423" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>3</v>
+      </c>
+      <c r="R423" t="s">
+        <v>3</v>
+      </c>
+      <c r="S423" t="s">
+        <v>3</v>
+      </c>
+      <c r="T423" t="s">
+        <v>2</v>
+      </c>
+      <c r="U423" t="s">
+        <v>2</v>
+      </c>
+      <c r="V423" t="s">
+        <v>2</v>
+      </c>
+      <c r="W423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>52</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3</v>
+      </c>
+      <c r="E424" t="s">
+        <v>2</v>
+      </c>
+      <c r="F424" t="s">
+        <v>3</v>
+      </c>
+      <c r="G424" t="s">
+        <v>2</v>
+      </c>
+      <c r="H424" t="s">
+        <v>3</v>
+      </c>
+      <c r="I424" t="s">
+        <v>2</v>
+      </c>
+      <c r="J424" t="s">
+        <v>2</v>
+      </c>
+      <c r="K424" t="s">
+        <v>3</v>
+      </c>
+      <c r="L424" t="s">
+        <v>2</v>
+      </c>
+      <c r="M424" t="s">
+        <v>2</v>
+      </c>
+      <c r="N424" t="s">
+        <v>3</v>
+      </c>
+      <c r="O424" t="s">
+        <v>3</v>
+      </c>
+      <c r="P424" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>3</v>
+      </c>
+      <c r="R424" t="s">
+        <v>3</v>
+      </c>
+      <c r="S424" t="s">
+        <v>3</v>
+      </c>
+      <c r="T424" t="s">
+        <v>2</v>
+      </c>
+      <c r="U424" t="s">
+        <v>2</v>
+      </c>
+      <c r="V424" t="s">
+        <v>3</v>
+      </c>
+      <c r="W424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>55</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2</v>
+      </c>
+      <c r="E425" t="s">
+        <v>3</v>
+      </c>
+      <c r="F425" t="s">
+        <v>3</v>
+      </c>
+      <c r="G425" t="s">
+        <v>2</v>
+      </c>
+      <c r="H425" t="s">
+        <v>3</v>
+      </c>
+      <c r="I425" t="s">
+        <v>2</v>
+      </c>
+      <c r="J425" t="s">
+        <v>2</v>
+      </c>
+      <c r="K425" t="s">
+        <v>3</v>
+      </c>
+      <c r="L425" t="s">
+        <v>2</v>
+      </c>
+      <c r="M425" t="s">
+        <v>2</v>
+      </c>
+      <c r="N425" t="s">
+        <v>3</v>
+      </c>
+      <c r="O425" t="s">
+        <v>2</v>
+      </c>
+      <c r="P425" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>3</v>
+      </c>
+      <c r="R425" t="s">
+        <v>3</v>
+      </c>
+      <c r="S425" t="s">
+        <v>3</v>
+      </c>
+      <c r="T425" t="s">
+        <v>2</v>
+      </c>
+      <c r="U425" t="s">
+        <v>2</v>
+      </c>
+      <c r="V425" t="s">
+        <v>3</v>
+      </c>
+      <c r="W425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>56</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>2</v>
+      </c>
+      <c r="E426" t="s">
+        <v>3</v>
+      </c>
+      <c r="F426" t="s">
+        <v>3</v>
+      </c>
+      <c r="G426" t="s">
+        <v>2</v>
+      </c>
+      <c r="H426" t="s">
+        <v>3</v>
+      </c>
+      <c r="I426" t="s">
+        <v>3</v>
+      </c>
+      <c r="J426" t="s">
+        <v>2</v>
+      </c>
+      <c r="K426" t="s">
+        <v>3</v>
+      </c>
+      <c r="L426" t="s">
+        <v>3</v>
+      </c>
+      <c r="M426" t="s">
+        <v>2</v>
+      </c>
+      <c r="N426" t="s">
+        <v>2</v>
+      </c>
+      <c r="O426" t="s">
+        <v>3</v>
+      </c>
+      <c r="P426" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>3</v>
+      </c>
+      <c r="R426" t="s">
+        <v>2</v>
+      </c>
+      <c r="S426" t="s">
+        <v>3</v>
+      </c>
+      <c r="T426" t="s">
+        <v>2</v>
+      </c>
+      <c r="U426" t="s">
+        <v>3</v>
+      </c>
+      <c r="V426" t="s">
+        <v>3</v>
+      </c>
+      <c r="W426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>15</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2</v>
+      </c>
+      <c r="E427" t="s">
+        <v>3</v>
+      </c>
+      <c r="F427" t="s">
+        <v>3</v>
+      </c>
+      <c r="G427" t="s">
+        <v>2</v>
+      </c>
+      <c r="H427" t="s">
+        <v>3</v>
+      </c>
+      <c r="I427" t="s">
+        <v>2</v>
+      </c>
+      <c r="J427" t="s">
+        <v>2</v>
+      </c>
+      <c r="K427" t="s">
+        <v>3</v>
+      </c>
+      <c r="L427" t="s">
+        <v>2</v>
+      </c>
+      <c r="M427" t="s">
+        <v>2</v>
+      </c>
+      <c r="N427" t="s">
+        <v>3</v>
+      </c>
+      <c r="O427" t="s">
+        <v>3</v>
+      </c>
+      <c r="P427" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>3</v>
+      </c>
+      <c r="R427" t="s">
+        <v>3</v>
+      </c>
+      <c r="S427" t="s">
+        <v>3</v>
+      </c>
+      <c r="T427" t="s">
+        <v>2</v>
+      </c>
+      <c r="U427" t="s">
+        <v>3</v>
+      </c>
+      <c r="V427" t="s">
+        <v>3</v>
+      </c>
+      <c r="W427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>45</v>
+      </c>
+      <c r="C428" t="s">
+        <v>3</v>
+      </c>
+      <c r="D428" t="s">
+        <v>2</v>
+      </c>
+      <c r="E428" t="s">
+        <v>2</v>
+      </c>
+      <c r="F428" t="s">
+        <v>3</v>
+      </c>
+      <c r="G428" t="s">
+        <v>2</v>
+      </c>
+      <c r="H428" t="s">
+        <v>2</v>
+      </c>
+      <c r="I428" t="s">
+        <v>3</v>
+      </c>
+      <c r="J428" t="s">
+        <v>2</v>
+      </c>
+      <c r="K428" t="s">
+        <v>3</v>
+      </c>
+      <c r="L428" t="s">
+        <v>3</v>
+      </c>
+      <c r="M428" t="s">
+        <v>2</v>
+      </c>
+      <c r="N428" t="s">
+        <v>2</v>
+      </c>
+      <c r="O428" t="s">
+        <v>2</v>
+      </c>
+      <c r="P428" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>3</v>
+      </c>
+      <c r="R428" t="s">
+        <v>2</v>
+      </c>
+      <c r="S428" t="s">
+        <v>3</v>
+      </c>
+      <c r="T428" t="s">
+        <v>2</v>
+      </c>
+      <c r="U428" t="s">
+        <v>2</v>
+      </c>
+      <c r="V428" t="s">
+        <v>2</v>
+      </c>
+      <c r="W428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>36</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>2</v>
+      </c>
+      <c r="E429" t="s">
+        <v>3</v>
+      </c>
+      <c r="F429" t="s">
+        <v>3</v>
+      </c>
+      <c r="G429" t="s">
+        <v>2</v>
+      </c>
+      <c r="H429" t="s">
+        <v>3</v>
+      </c>
+      <c r="I429" t="s">
+        <v>2</v>
+      </c>
+      <c r="J429" t="s">
+        <v>2</v>
+      </c>
+      <c r="K429" t="s">
+        <v>3</v>
+      </c>
+      <c r="L429" t="s">
+        <v>3</v>
+      </c>
+      <c r="M429" t="s">
+        <v>2</v>
+      </c>
+      <c r="N429" t="s">
+        <v>2</v>
+      </c>
+      <c r="O429" t="s">
+        <v>2</v>
+      </c>
+      <c r="P429" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>3</v>
+      </c>
+      <c r="R429" t="s">
+        <v>3</v>
+      </c>
+      <c r="S429" t="s">
+        <v>2</v>
+      </c>
+      <c r="T429" t="s">
+        <v>2</v>
+      </c>
+      <c r="U429" t="s">
+        <v>2</v>
+      </c>
+      <c r="V429" t="s">
+        <v>2</v>
+      </c>
+      <c r="W429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>28</v>
+      </c>
+      <c r="C430" t="s">
+        <v>3</v>
+      </c>
+      <c r="D430" t="s">
+        <v>2</v>
+      </c>
+      <c r="E430" t="s">
+        <v>3</v>
+      </c>
+      <c r="F430" t="s">
+        <v>3</v>
+      </c>
+      <c r="G430" t="s">
+        <v>2</v>
+      </c>
+      <c r="H430" t="s">
+        <v>3</v>
+      </c>
+      <c r="I430" t="s">
+        <v>3</v>
+      </c>
+      <c r="J430" t="s">
+        <v>2</v>
+      </c>
+      <c r="K430" t="s">
+        <v>3</v>
+      </c>
+      <c r="L430" t="s">
+        <v>3</v>
+      </c>
+      <c r="M430" t="s">
+        <v>2</v>
+      </c>
+      <c r="N430" t="s">
+        <v>3</v>
+      </c>
+      <c r="O430" t="s">
+        <v>3</v>
+      </c>
+      <c r="P430" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>3</v>
+      </c>
+      <c r="R430" t="s">
+        <v>3</v>
+      </c>
+      <c r="S430" t="s">
+        <v>2</v>
+      </c>
+      <c r="T430" t="s">
+        <v>2</v>
+      </c>
+      <c r="U430" t="s">
+        <v>3</v>
+      </c>
+      <c r="V430" t="s">
+        <v>3</v>
+      </c>
+      <c r="W430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>43</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3</v>
+      </c>
+      <c r="E431" t="s">
+        <v>3</v>
+      </c>
+      <c r="F431" t="s">
+        <v>3</v>
+      </c>
+      <c r="G431" t="s">
+        <v>2</v>
+      </c>
+      <c r="H431" t="s">
+        <v>3</v>
+      </c>
+      <c r="I431" t="s">
+        <v>2</v>
+      </c>
+      <c r="J431" t="s">
+        <v>2</v>
+      </c>
+      <c r="K431" t="s">
+        <v>2</v>
+      </c>
+      <c r="L431" t="s">
+        <v>2</v>
+      </c>
+      <c r="M431" t="s">
+        <v>2</v>
+      </c>
+      <c r="N431" t="s">
+        <v>3</v>
+      </c>
+      <c r="O431" t="s">
+        <v>2</v>
+      </c>
+      <c r="P431" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>3</v>
+      </c>
+      <c r="R431" t="s">
+        <v>3</v>
+      </c>
+      <c r="S431" t="s">
+        <v>2</v>
+      </c>
+      <c r="T431" t="s">
+        <v>3</v>
+      </c>
+      <c r="U431" t="s">
+        <v>2</v>
+      </c>
+      <c r="V431" t="s">
+        <v>2</v>
+      </c>
+      <c r="W431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>20</v>
+      </c>
+      <c r="C432" t="s">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>2</v>
+      </c>
+      <c r="E432" t="s">
+        <v>2</v>
+      </c>
+      <c r="F432" t="s">
+        <v>2</v>
+      </c>
+      <c r="G432" t="s">
+        <v>2</v>
+      </c>
+      <c r="H432" t="s">
+        <v>2</v>
+      </c>
+      <c r="I432" t="s">
+        <v>3</v>
+      </c>
+      <c r="J432" t="s">
+        <v>3</v>
+      </c>
+      <c r="K432" t="s">
+        <v>2</v>
+      </c>
+      <c r="L432" t="s">
+        <v>2</v>
+      </c>
+      <c r="M432" t="s">
+        <v>2</v>
+      </c>
+      <c r="N432" t="s">
+        <v>2</v>
+      </c>
+      <c r="O432" t="s">
+        <v>2</v>
+      </c>
+      <c r="P432" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>2</v>
+      </c>
+      <c r="R432" t="s">
+        <v>2</v>
+      </c>
+      <c r="S432" t="s">
+        <v>2</v>
+      </c>
+      <c r="T432" t="s">
+        <v>2</v>
+      </c>
+      <c r="U432" t="s">
+        <v>2</v>
+      </c>
+      <c r="V432" t="s">
+        <v>2</v>
+      </c>
+      <c r="W432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>25</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2</v>
+      </c>
+      <c r="E433" t="s">
+        <v>3</v>
+      </c>
+      <c r="F433" t="s">
+        <v>2</v>
+      </c>
+      <c r="G433" t="s">
+        <v>2</v>
+      </c>
+      <c r="H433" t="s">
+        <v>3</v>
+      </c>
+      <c r="I433" t="s">
+        <v>2</v>
+      </c>
+      <c r="J433" t="s">
+        <v>2</v>
+      </c>
+      <c r="K433" t="s">
+        <v>2</v>
+      </c>
+      <c r="L433" t="s">
+        <v>2</v>
+      </c>
+      <c r="M433" t="s">
+        <v>2</v>
+      </c>
+      <c r="N433" t="s">
+        <v>2</v>
+      </c>
+      <c r="O433" t="s">
+        <v>3</v>
+      </c>
+      <c r="P433" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>2</v>
+      </c>
+      <c r="R433" t="s">
+        <v>2</v>
+      </c>
+      <c r="S433" t="s">
+        <v>2</v>
+      </c>
+      <c r="T433" t="s">
+        <v>3</v>
+      </c>
+      <c r="U433" t="s">
+        <v>3</v>
+      </c>
+      <c r="V433" t="s">
+        <v>2</v>
+      </c>
+      <c r="W433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>28</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3</v>
+      </c>
+      <c r="D434" t="s">
+        <v>2</v>
+      </c>
+      <c r="E434" t="s">
+        <v>2</v>
+      </c>
+      <c r="F434" t="s">
+        <v>3</v>
+      </c>
+      <c r="G434" t="s">
+        <v>2</v>
+      </c>
+      <c r="H434" t="s">
+        <v>3</v>
+      </c>
+      <c r="I434" t="s">
+        <v>3</v>
+      </c>
+      <c r="J434" t="s">
+        <v>2</v>
+      </c>
+      <c r="K434" t="s">
+        <v>2</v>
+      </c>
+      <c r="L434" t="s">
+        <v>2</v>
+      </c>
+      <c r="M434" t="s">
+        <v>3</v>
+      </c>
+      <c r="N434" t="s">
+        <v>2</v>
+      </c>
+      <c r="O434" t="s">
+        <v>2</v>
+      </c>
+      <c r="P434" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>2</v>
+      </c>
+      <c r="R434" t="s">
+        <v>3</v>
+      </c>
+      <c r="S434" t="s">
+        <v>2</v>
+      </c>
+      <c r="T434" t="s">
+        <v>3</v>
+      </c>
+      <c r="U434" t="s">
+        <v>2</v>
+      </c>
+      <c r="V434" t="s">
+        <v>2</v>
+      </c>
+      <c r="W434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>57</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>3</v>
+      </c>
+      <c r="E435" t="s">
+        <v>3</v>
+      </c>
+      <c r="F435" t="s">
+        <v>2</v>
+      </c>
+      <c r="G435" t="s">
+        <v>2</v>
+      </c>
+      <c r="H435" t="s">
+        <v>2</v>
+      </c>
+      <c r="I435" t="s">
+        <v>2</v>
+      </c>
+      <c r="J435" t="s">
+        <v>2</v>
+      </c>
+      <c r="K435" t="s">
+        <v>3</v>
+      </c>
+      <c r="L435" t="s">
+        <v>3</v>
+      </c>
+      <c r="M435" t="s">
+        <v>2</v>
+      </c>
+      <c r="N435" t="s">
+        <v>3</v>
+      </c>
+      <c r="O435" t="s">
+        <v>3</v>
+      </c>
+      <c r="P435" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>3</v>
+      </c>
+      <c r="R435" t="s">
+        <v>3</v>
+      </c>
+      <c r="S435" t="s">
+        <v>3</v>
+      </c>
+      <c r="T435" t="s">
+        <v>2</v>
+      </c>
+      <c r="U435" t="s">
+        <v>2</v>
+      </c>
+      <c r="V435" t="s">
+        <v>3</v>
+      </c>
+      <c r="W435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>36</v>
+      </c>
+      <c r="C436" t="s">
+        <v>2</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2</v>
+      </c>
+      <c r="E436" t="s">
+        <v>3</v>
+      </c>
+      <c r="F436" t="s">
+        <v>2</v>
+      </c>
+      <c r="G436" t="s">
+        <v>2</v>
+      </c>
+      <c r="H436" t="s">
+        <v>3</v>
+      </c>
+      <c r="I436" t="s">
+        <v>2</v>
+      </c>
+      <c r="J436" t="s">
+        <v>2</v>
+      </c>
+      <c r="K436" t="s">
+        <v>3</v>
+      </c>
+      <c r="L436" t="s">
+        <v>2</v>
+      </c>
+      <c r="M436" t="s">
+        <v>2</v>
+      </c>
+      <c r="N436" t="s">
+        <v>3</v>
+      </c>
+      <c r="O436" t="s">
+        <v>2</v>
+      </c>
+      <c r="P436" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>3</v>
+      </c>
+      <c r="R436" t="s">
+        <v>3</v>
+      </c>
+      <c r="S436" t="s">
+        <v>2</v>
+      </c>
+      <c r="T436" t="s">
+        <v>2</v>
+      </c>
+      <c r="U436" t="s">
+        <v>2</v>
+      </c>
+      <c r="V436" t="s">
+        <v>2</v>
+      </c>
+      <c r="W436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>56</v>
+      </c>
+      <c r="C437" t="s">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3</v>
+      </c>
+      <c r="E437" t="s">
+        <v>3</v>
+      </c>
+      <c r="F437" t="s">
+        <v>3</v>
+      </c>
+      <c r="G437" t="s">
+        <v>2</v>
+      </c>
+      <c r="H437" t="s">
+        <v>3</v>
+      </c>
+      <c r="I437" t="s">
+        <v>3</v>
+      </c>
+      <c r="J437" t="s">
+        <v>3</v>
+      </c>
+      <c r="K437" t="s">
+        <v>3</v>
+      </c>
+      <c r="L437" t="s">
+        <v>3</v>
+      </c>
+      <c r="M437" t="s">
+        <v>2</v>
+      </c>
+      <c r="N437" t="s">
+        <v>3</v>
+      </c>
+      <c r="O437" t="s">
+        <v>3</v>
+      </c>
+      <c r="P437" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>3</v>
+      </c>
+      <c r="R437" t="s">
+        <v>3</v>
+      </c>
+      <c r="S437" t="s">
+        <v>3</v>
+      </c>
+      <c r="T437" t="s">
+        <v>2</v>
+      </c>
+      <c r="U437" t="s">
+        <v>2</v>
+      </c>
+      <c r="V437" t="s">
+        <v>3</v>
+      </c>
+      <c r="W437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>17</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
+      <c r="D438" t="s">
+        <v>3</v>
+      </c>
+      <c r="E438" t="s">
+        <v>2</v>
+      </c>
+      <c r="F438" t="s">
+        <v>3</v>
+      </c>
+      <c r="G438" t="s">
+        <v>2</v>
+      </c>
+      <c r="H438" t="s">
+        <v>3</v>
+      </c>
+      <c r="I438" t="s">
+        <v>2</v>
+      </c>
+      <c r="J438" t="s">
+        <v>2</v>
+      </c>
+      <c r="K438" t="s">
+        <v>3</v>
+      </c>
+      <c r="L438" t="s">
+        <v>2</v>
+      </c>
+      <c r="M438" t="s">
+        <v>2</v>
+      </c>
+      <c r="N438" t="s">
+        <v>2</v>
+      </c>
+      <c r="O438" t="s">
+        <v>2</v>
+      </c>
+      <c r="P438" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>3</v>
+      </c>
+      <c r="R438" t="s">
+        <v>3</v>
+      </c>
+      <c r="S438" t="s">
+        <v>2</v>
+      </c>
+      <c r="T438" t="s">
+        <v>2</v>
+      </c>
+      <c r="U438" t="s">
+        <v>2</v>
+      </c>
+      <c r="V438" t="s">
+        <v>2</v>
+      </c>
+      <c r="W438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>27</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2</v>
+      </c>
+      <c r="E439" t="s">
+        <v>3</v>
+      </c>
+      <c r="F439" t="s">
+        <v>3</v>
+      </c>
+      <c r="G439" t="s">
+        <v>2</v>
+      </c>
+      <c r="H439" t="s">
+        <v>3</v>
+      </c>
+      <c r="I439" t="s">
+        <v>2</v>
+      </c>
+      <c r="J439" t="s">
+        <v>2</v>
+      </c>
+      <c r="K439" t="s">
+        <v>3</v>
+      </c>
+      <c r="L439" t="s">
+        <v>2</v>
+      </c>
+      <c r="M439" t="s">
+        <v>3</v>
+      </c>
+      <c r="N439" t="s">
+        <v>2</v>
+      </c>
+      <c r="O439" t="s">
+        <v>2</v>
+      </c>
+      <c r="P439" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>3</v>
+      </c>
+      <c r="R439" t="s">
+        <v>3</v>
+      </c>
+      <c r="S439" t="s">
+        <v>2</v>
+      </c>
+      <c r="T439" t="s">
+        <v>3</v>
+      </c>
+      <c r="U439" t="s">
+        <v>2</v>
+      </c>
+      <c r="V439" t="s">
+        <v>3</v>
+      </c>
+      <c r="W439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>68</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2</v>
+      </c>
+      <c r="E440" t="s">
+        <v>3</v>
+      </c>
+      <c r="F440" t="s">
+        <v>3</v>
+      </c>
+      <c r="G440" t="s">
+        <v>2</v>
+      </c>
+      <c r="H440" t="s">
+        <v>2</v>
+      </c>
+      <c r="I440" t="s">
+        <v>2</v>
+      </c>
+      <c r="J440" t="s">
+        <v>2</v>
+      </c>
+      <c r="K440" t="s">
+        <v>3</v>
+      </c>
+      <c r="L440" t="s">
+        <v>3</v>
+      </c>
+      <c r="M440" t="s">
+        <v>3</v>
+      </c>
+      <c r="N440" t="s">
+        <v>2</v>
+      </c>
+      <c r="O440" t="s">
+        <v>3</v>
+      </c>
+      <c r="P440" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>2</v>
+      </c>
+      <c r="R440" t="s">
+        <v>3</v>
+      </c>
+      <c r="S440" t="s">
+        <v>2</v>
+      </c>
+      <c r="T440" t="s">
+        <v>2</v>
+      </c>
+      <c r="U440" t="s">
+        <v>2</v>
+      </c>
+      <c r="V440" t="s">
+        <v>3</v>
+      </c>
+      <c r="W440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>44</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3</v>
+      </c>
+      <c r="E441" t="s">
+        <v>3</v>
+      </c>
+      <c r="F441" t="s">
+        <v>3</v>
+      </c>
+      <c r="G441" t="s">
+        <v>2</v>
+      </c>
+      <c r="H441" t="s">
+        <v>3</v>
+      </c>
+      <c r="I441" t="s">
+        <v>2</v>
+      </c>
+      <c r="J441" t="s">
+        <v>3</v>
+      </c>
+      <c r="K441" t="s">
+        <v>3</v>
+      </c>
+      <c r="L441" t="s">
+        <v>2</v>
+      </c>
+      <c r="M441" t="s">
+        <v>3</v>
+      </c>
+      <c r="N441" t="s">
+        <v>2</v>
+      </c>
+      <c r="O441" t="s">
+        <v>3</v>
+      </c>
+      <c r="P441" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>3</v>
+      </c>
+      <c r="R441" t="s">
+        <v>3</v>
+      </c>
+      <c r="S441" t="s">
+        <v>2</v>
+      </c>
+      <c r="T441" t="s">
+        <v>3</v>
+      </c>
+      <c r="U441" t="s">
+        <v>2</v>
+      </c>
+      <c r="V441" t="s">
+        <v>2</v>
+      </c>
+      <c r="W441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>50</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3</v>
+      </c>
+      <c r="D442" t="s">
+        <v>2</v>
+      </c>
+      <c r="E442" t="s">
+        <v>2</v>
+      </c>
+      <c r="F442" t="s">
+        <v>3</v>
+      </c>
+      <c r="G442" t="s">
+        <v>2</v>
+      </c>
+      <c r="H442" t="s">
+        <v>3</v>
+      </c>
+      <c r="I442" t="s">
+        <v>3</v>
+      </c>
+      <c r="J442" t="s">
+        <v>2</v>
+      </c>
+      <c r="K442" t="s">
+        <v>3</v>
+      </c>
+      <c r="L442" t="s">
+        <v>2</v>
+      </c>
+      <c r="M442" t="s">
+        <v>3</v>
+      </c>
+      <c r="N442" t="s">
+        <v>3</v>
+      </c>
+      <c r="O442" t="s">
+        <v>2</v>
+      </c>
+      <c r="P442" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>3</v>
+      </c>
+      <c r="R442" t="s">
+        <v>3</v>
+      </c>
+      <c r="S442" t="s">
+        <v>2</v>
+      </c>
+      <c r="T442" t="s">
+        <v>3</v>
+      </c>
+      <c r="U442" t="s">
+        <v>2</v>
+      </c>
+      <c r="V442" t="s">
+        <v>2</v>
+      </c>
+      <c r="W442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>40</v>
+      </c>
+      <c r="C443" t="s">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2</v>
+      </c>
+      <c r="E443" t="s">
+        <v>3</v>
+      </c>
+      <c r="F443" t="s">
+        <v>3</v>
+      </c>
+      <c r="G443" t="s">
+        <v>2</v>
+      </c>
+      <c r="H443" t="s">
+        <v>3</v>
+      </c>
+      <c r="I443" t="s">
+        <v>2</v>
+      </c>
+      <c r="J443" t="s">
+        <v>2</v>
+      </c>
+      <c r="K443" t="s">
+        <v>3</v>
+      </c>
+      <c r="L443" t="s">
+        <v>3</v>
+      </c>
+      <c r="M443" t="s">
+        <v>3</v>
+      </c>
+      <c r="N443" t="s">
+        <v>3</v>
+      </c>
+      <c r="O443" t="s">
+        <v>2</v>
+      </c>
+      <c r="P443" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>3</v>
+      </c>
+      <c r="R443" t="s">
+        <v>3</v>
+      </c>
+      <c r="S443" t="s">
+        <v>2</v>
+      </c>
+      <c r="T443" t="s">
+        <v>3</v>
+      </c>
+      <c r="U443" t="s">
+        <v>2</v>
+      </c>
+      <c r="V443" t="s">
+        <v>2</v>
+      </c>
+      <c r="W443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>39</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3</v>
+      </c>
+      <c r="D444" t="s">
+        <v>3</v>
+      </c>
+      <c r="E444" t="s">
+        <v>3</v>
+      </c>
+      <c r="F444" t="s">
+        <v>28</v>
+      </c>
+      <c r="G444" t="s">
+        <v>2</v>
+      </c>
+      <c r="H444" t="s">
+        <v>3</v>
+      </c>
+      <c r="I444" t="s">
+        <v>2</v>
+      </c>
+      <c r="J444" t="s">
+        <v>2</v>
+      </c>
+      <c r="K444" t="s">
+        <v>2</v>
+      </c>
+      <c r="L444" t="s">
+        <v>2</v>
+      </c>
+      <c r="M444" t="s">
+        <v>2</v>
+      </c>
+      <c r="N444" t="s">
+        <v>3</v>
+      </c>
+      <c r="O444" t="s">
+        <v>3</v>
+      </c>
+      <c r="P444" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>3</v>
+      </c>
+      <c r="R444" t="s">
+        <v>2</v>
+      </c>
+      <c r="S444" t="s">
+        <v>2</v>
+      </c>
+      <c r="T444" t="s">
+        <v>2</v>
+      </c>
+      <c r="U444" t="s">
+        <v>3</v>
+      </c>
+      <c r="V444" t="s">
+        <v>3</v>
+      </c>
+      <c r="W444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>19</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3</v>
+      </c>
+      <c r="D445" t="s">
+        <v>3</v>
+      </c>
+      <c r="E445" t="s">
+        <v>3</v>
+      </c>
+      <c r="F445" t="s">
+        <v>2</v>
+      </c>
+      <c r="G445" t="s">
+        <v>2</v>
+      </c>
+      <c r="H445" t="s">
+        <v>3</v>
+      </c>
+      <c r="I445" t="s">
+        <v>2</v>
+      </c>
+      <c r="J445" t="s">
+        <v>2</v>
+      </c>
+      <c r="K445" t="s">
+        <v>2</v>
+      </c>
+      <c r="L445" t="s">
+        <v>2</v>
+      </c>
+      <c r="M445" t="s">
+        <v>2</v>
+      </c>
+      <c r="N445" t="s">
+        <v>3</v>
+      </c>
+      <c r="O445" t="s">
+        <v>3</v>
+      </c>
+      <c r="P445" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>3</v>
+      </c>
+      <c r="R445" t="s">
+        <v>2</v>
+      </c>
+      <c r="S445" t="s">
+        <v>2</v>
+      </c>
+      <c r="T445" t="s">
+        <v>2</v>
+      </c>
+      <c r="U445" t="s">
+        <v>2</v>
+      </c>
+      <c r="V445" t="s">
+        <v>2</v>
+      </c>
+      <c r="W445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>3</v>
+      </c>
+      <c r="C446" t="s">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>2</v>
+      </c>
+      <c r="F446" t="s">
+        <v>2</v>
+      </c>
+      <c r="G446" t="s">
+        <v>2</v>
+      </c>
+      <c r="H446" t="s">
+        <v>2</v>
+      </c>
+      <c r="I446" t="s">
+        <v>2</v>
+      </c>
+      <c r="J446" t="s">
+        <v>2</v>
+      </c>
+      <c r="K446" t="s">
+        <v>2</v>
+      </c>
+      <c r="L446" t="s">
+        <v>2</v>
+      </c>
+      <c r="M446" t="s">
+        <v>2</v>
+      </c>
+      <c r="N446" t="s">
+        <v>2</v>
+      </c>
+      <c r="O446" t="s">
+        <v>2</v>
+      </c>
+      <c r="P446" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>2</v>
+      </c>
+      <c r="R446" t="s">
+        <v>2</v>
+      </c>
+      <c r="S446" t="s">
+        <v>2</v>
+      </c>
+      <c r="T446" t="s">
+        <v>2</v>
+      </c>
+      <c r="U446" t="s">
+        <v>2</v>
+      </c>
+      <c r="V446" t="s">
+        <v>2</v>
+      </c>
+      <c r="W446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>17</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3</v>
+      </c>
+      <c r="E447" t="s">
+        <v>3</v>
+      </c>
+      <c r="F447" t="s">
+        <v>2</v>
+      </c>
+      <c r="G447" t="s">
+        <v>2</v>
+      </c>
+      <c r="H447" t="s">
+        <v>3</v>
+      </c>
+      <c r="I447" t="s">
+        <v>2</v>
+      </c>
+      <c r="J447" t="s">
+        <v>2</v>
+      </c>
+      <c r="K447" t="s">
+        <v>2</v>
+      </c>
+      <c r="L447" t="s">
+        <v>2</v>
+      </c>
+      <c r="M447" t="s">
+        <v>2</v>
+      </c>
+      <c r="N447" t="s">
+        <v>3</v>
+      </c>
+      <c r="O447" t="s">
+        <v>3</v>
+      </c>
+      <c r="P447" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>3</v>
+      </c>
+      <c r="R447" t="s">
+        <v>3</v>
+      </c>
+      <c r="S447" t="s">
+        <v>2</v>
+      </c>
+      <c r="T447" t="s">
+        <v>2</v>
+      </c>
+      <c r="U447" t="s">
+        <v>2</v>
+      </c>
+      <c r="V447" t="s">
+        <v>2</v>
+      </c>
+      <c r="W447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>37</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3</v>
+      </c>
+      <c r="E448" t="s">
+        <v>2</v>
+      </c>
+      <c r="F448" t="s">
+        <v>3</v>
+      </c>
+      <c r="G448" t="s">
+        <v>2</v>
+      </c>
+      <c r="H448" t="s">
+        <v>3</v>
+      </c>
+      <c r="I448" t="s">
+        <v>2</v>
+      </c>
+      <c r="J448" t="s">
+        <v>2</v>
+      </c>
+      <c r="K448" t="s">
+        <v>2</v>
+      </c>
+      <c r="L448" t="s">
+        <v>2</v>
+      </c>
+      <c r="M448" t="s">
+        <v>2</v>
+      </c>
+      <c r="N448" t="s">
+        <v>3</v>
+      </c>
+      <c r="O448" t="s">
+        <v>3</v>
+      </c>
+      <c r="P448" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>3</v>
+      </c>
+      <c r="R448" t="s">
+        <v>3</v>
+      </c>
+      <c r="S448" t="s">
+        <v>3</v>
+      </c>
+      <c r="T448" t="s">
+        <v>2</v>
+      </c>
+      <c r="U448" t="s">
+        <v>2</v>
+      </c>
+      <c r="V448" t="s">
+        <v>2</v>
+      </c>
+      <c r="W448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>35</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3</v>
+      </c>
+      <c r="E449" t="s">
+        <v>3</v>
+      </c>
+      <c r="F449" t="s">
+        <v>3</v>
+      </c>
+      <c r="G449" t="s">
+        <v>2</v>
+      </c>
+      <c r="H449" t="s">
+        <v>3</v>
+      </c>
+      <c r="I449" t="s">
+        <v>2</v>
+      </c>
+      <c r="J449" t="s">
+        <v>2</v>
+      </c>
+      <c r="K449" t="s">
+        <v>2</v>
+      </c>
+      <c r="L449" t="s">
+        <v>2</v>
+      </c>
+      <c r="M449" t="s">
+        <v>2</v>
+      </c>
+      <c r="N449" t="s">
+        <v>3</v>
+      </c>
+      <c r="O449" t="s">
+        <v>2</v>
+      </c>
+      <c r="P449" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>3</v>
+      </c>
+      <c r="R449" t="s">
+        <v>3</v>
+      </c>
+      <c r="S449" t="s">
+        <v>3</v>
+      </c>
+      <c r="T449" t="s">
+        <v>2</v>
+      </c>
+      <c r="U449" t="s">
+        <v>2</v>
+      </c>
+      <c r="V449" t="s">
+        <v>2</v>
+      </c>
+      <c r="W449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>30</v>
+      </c>
+      <c r="C450" t="s">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>2</v>
+      </c>
+      <c r="E450" t="s">
+        <v>3</v>
+      </c>
+      <c r="F450" t="s">
+        <v>2</v>
+      </c>
+      <c r="G450" t="s">
+        <v>2</v>
+      </c>
+      <c r="H450" t="s">
+        <v>3</v>
+      </c>
+      <c r="I450" t="s">
+        <v>2</v>
+      </c>
+      <c r="J450" t="s">
+        <v>2</v>
+      </c>
+      <c r="K450" t="s">
+        <v>2</v>
+      </c>
+      <c r="L450" t="s">
+        <v>2</v>
+      </c>
+      <c r="M450" t="s">
+        <v>2</v>
+      </c>
+      <c r="N450" t="s">
+        <v>2</v>
+      </c>
+      <c r="O450" t="s">
+        <v>2</v>
+      </c>
+      <c r="P450" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>3</v>
+      </c>
+      <c r="R450" t="s">
+        <v>2</v>
+      </c>
+      <c r="S450" t="s">
+        <v>2</v>
+      </c>
+      <c r="T450" t="s">
+        <v>2</v>
+      </c>
+      <c r="U450" t="s">
+        <v>2</v>
+      </c>
+      <c r="V450" t="s">
+        <v>2</v>
+      </c>
+      <c r="W450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>23</v>
+      </c>
+      <c r="C451" t="s">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2</v>
+      </c>
+      <c r="E451" t="s">
+        <v>3</v>
+      </c>
+      <c r="F451" t="s">
+        <v>2</v>
+      </c>
+      <c r="G451" t="s">
+        <v>2</v>
+      </c>
+      <c r="H451" t="s">
+        <v>2</v>
+      </c>
+      <c r="I451" t="s">
+        <v>2</v>
+      </c>
+      <c r="J451" t="s">
+        <v>2</v>
+      </c>
+      <c r="K451" t="s">
+        <v>2</v>
+      </c>
+      <c r="L451" t="s">
+        <v>2</v>
+      </c>
+      <c r="M451" t="s">
+        <v>2</v>
+      </c>
+      <c r="N451" t="s">
+        <v>2</v>
+      </c>
+      <c r="O451" t="s">
+        <v>2</v>
+      </c>
+      <c r="P451" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q451" t="s">
+        <v>3</v>
+      </c>
+      <c r="R451" t="s">
+        <v>2</v>
+      </c>
+      <c r="S451" t="s">
+        <v>2</v>
+      </c>
+      <c r="T451" t="s">
+        <v>2</v>
+      </c>
+      <c r="U451" t="s">
+        <v>2</v>
+      </c>
+      <c r="V451" t="s">
+        <v>2</v>
+      </c>
+      <c r="W451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2</v>
+      </c>
+      <c r="E452" t="s">
+        <v>3</v>
+      </c>
+      <c r="F452" t="s">
+        <v>2</v>
+      </c>
+      <c r="G452" t="s">
+        <v>2</v>
+      </c>
+      <c r="H452" t="s">
+        <v>3</v>
+      </c>
+      <c r="I452" t="s">
+        <v>3</v>
+      </c>
+      <c r="J452" t="s">
+        <v>2</v>
+      </c>
+      <c r="K452" t="s">
+        <v>2</v>
+      </c>
+      <c r="L452" t="s">
+        <v>3</v>
+      </c>
+      <c r="M452" t="s">
+        <v>2</v>
+      </c>
+      <c r="N452" t="s">
+        <v>2</v>
+      </c>
+      <c r="O452" t="s">
+        <v>3</v>
+      </c>
+      <c r="P452" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>2</v>
+      </c>
+      <c r="R452" t="s">
+        <v>2</v>
+      </c>
+      <c r="S452" t="s">
+        <v>2</v>
+      </c>
+      <c r="T452" t="s">
+        <v>3</v>
+      </c>
+      <c r="U452" t="s">
+        <v>2</v>
+      </c>
+      <c r="V452" t="s">
+        <v>2</v>
+      </c>
+      <c r="W452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>18</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" t="s">
+        <v>3</v>
+      </c>
+      <c r="F453" t="s">
+        <v>2</v>
+      </c>
+      <c r="G453" t="s">
+        <v>2</v>
+      </c>
+      <c r="H453" t="s">
+        <v>3</v>
+      </c>
+      <c r="I453" t="s">
+        <v>3</v>
+      </c>
+      <c r="J453" t="s">
+        <v>2</v>
+      </c>
+      <c r="K453" t="s">
+        <v>2</v>
+      </c>
+      <c r="L453" t="s">
+        <v>3</v>
+      </c>
+      <c r="M453" t="s">
+        <v>3</v>
+      </c>
+      <c r="N453" t="s">
+        <v>2</v>
+      </c>
+      <c r="O453" t="s">
+        <v>2</v>
+      </c>
+      <c r="P453" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>3</v>
+      </c>
+      <c r="R453" t="s">
+        <v>2</v>
+      </c>
+      <c r="S453" t="s">
+        <v>3</v>
+      </c>
+      <c r="T453" t="s">
+        <v>2</v>
+      </c>
+      <c r="U453" t="s">
+        <v>2</v>
+      </c>
+      <c r="V453" t="s">
+        <v>2</v>
+      </c>
+      <c r="W453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>50</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2</v>
+      </c>
+      <c r="E454" t="s">
+        <v>3</v>
+      </c>
+      <c r="F454" t="s">
+        <v>3</v>
+      </c>
+      <c r="G454" t="s">
+        <v>2</v>
+      </c>
+      <c r="H454" t="s">
+        <v>3</v>
+      </c>
+      <c r="I454" t="s">
+        <v>2</v>
+      </c>
+      <c r="J454" t="s">
+        <v>2</v>
+      </c>
+      <c r="K454" t="s">
+        <v>2</v>
+      </c>
+      <c r="L454" t="s">
+        <v>2</v>
+      </c>
+      <c r="M454" t="s">
+        <v>2</v>
+      </c>
+      <c r="N454" t="s">
+        <v>2</v>
+      </c>
+      <c r="O454" t="s">
+        <v>2</v>
+      </c>
+      <c r="P454" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>3</v>
+      </c>
+      <c r="R454" t="s">
+        <v>2</v>
+      </c>
+      <c r="S454" t="s">
+        <v>2</v>
+      </c>
+      <c r="T454" t="s">
+        <v>2</v>
+      </c>
+      <c r="U454" t="s">
+        <v>3</v>
+      </c>
+      <c r="V454" t="s">
+        <v>3</v>
+      </c>
+      <c r="W454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>49</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+      <c r="E455" t="s">
+        <v>3</v>
+      </c>
+      <c r="F455" t="s">
+        <v>2</v>
+      </c>
+      <c r="G455" t="s">
+        <v>3</v>
+      </c>
+      <c r="H455" t="s">
+        <v>3</v>
+      </c>
+      <c r="I455" t="s">
+        <v>3</v>
+      </c>
+      <c r="J455" t="s">
+        <v>3</v>
+      </c>
+      <c r="K455" t="s">
+        <v>3</v>
+      </c>
+      <c r="L455" t="s">
+        <v>3</v>
+      </c>
+      <c r="M455" t="s">
+        <v>2</v>
+      </c>
+      <c r="N455" t="s">
+        <v>3</v>
+      </c>
+      <c r="O455" t="s">
+        <v>2</v>
+      </c>
+      <c r="P455" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>2</v>
+      </c>
+      <c r="R455" t="s">
+        <v>2</v>
+      </c>
+      <c r="S455" t="s">
+        <v>3</v>
+      </c>
+      <c r="T455" t="s">
+        <v>2</v>
+      </c>
+      <c r="U455" t="s">
+        <v>2</v>
+      </c>
+      <c r="V455" t="s">
+        <v>2</v>
+      </c>
+      <c r="W455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>31</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2</v>
+      </c>
+      <c r="E456" t="s">
+        <v>3</v>
+      </c>
+      <c r="F456" t="s">
+        <v>3</v>
+      </c>
+      <c r="G456" t="s">
+        <v>2</v>
+      </c>
+      <c r="H456" t="s">
+        <v>3</v>
+      </c>
+      <c r="I456" t="s">
+        <v>2</v>
+      </c>
+      <c r="J456" t="s">
+        <v>2</v>
+      </c>
+      <c r="K456" t="s">
+        <v>2</v>
+      </c>
+      <c r="L456" t="s">
+        <v>2</v>
+      </c>
+      <c r="M456" t="s">
+        <v>3</v>
+      </c>
+      <c r="N456" t="s">
+        <v>3</v>
+      </c>
+      <c r="O456" t="s">
+        <v>2</v>
+      </c>
+      <c r="P456" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>3</v>
+      </c>
+      <c r="R456" t="s">
+        <v>2</v>
+      </c>
+      <c r="S456" t="s">
+        <v>2</v>
+      </c>
+      <c r="T456" t="s">
+        <v>2</v>
+      </c>
+      <c r="U456" t="s">
+        <v>2</v>
+      </c>
+      <c r="V456" t="s">
+        <v>2</v>
+      </c>
+      <c r="W456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>22</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3</v>
+      </c>
+      <c r="E457" t="s">
+        <v>2</v>
+      </c>
+      <c r="F457" t="s">
+        <v>3</v>
+      </c>
+      <c r="G457" t="s">
+        <v>2</v>
+      </c>
+      <c r="H457" t="s">
+        <v>3</v>
+      </c>
+      <c r="I457" t="s">
+        <v>2</v>
+      </c>
+      <c r="J457" t="s">
+        <v>3</v>
+      </c>
+      <c r="K457" t="s">
+        <v>3</v>
+      </c>
+      <c r="L457" t="s">
+        <v>2</v>
+      </c>
+      <c r="M457" t="s">
+        <v>2</v>
+      </c>
+      <c r="N457" t="s">
+        <v>2</v>
+      </c>
+      <c r="O457" t="s">
+        <v>3</v>
+      </c>
+      <c r="P457" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>3</v>
+      </c>
+      <c r="R457" t="s">
+        <v>2</v>
+      </c>
+      <c r="S457" t="s">
+        <v>3</v>
+      </c>
+      <c r="T457" t="s">
+        <v>2</v>
+      </c>
+      <c r="U457" t="s">
+        <v>2</v>
+      </c>
+      <c r="V457" t="s">
+        <v>2</v>
+      </c>
+      <c r="W457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>23</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3</v>
+      </c>
+      <c r="E458" t="s">
+        <v>2</v>
+      </c>
+      <c r="F458" t="s">
+        <v>3</v>
+      </c>
+      <c r="G458" t="s">
+        <v>2</v>
+      </c>
+      <c r="H458" t="s">
+        <v>3</v>
+      </c>
+      <c r="I458" t="s">
+        <v>2</v>
+      </c>
+      <c r="J458" t="s">
+        <v>2</v>
+      </c>
+      <c r="K458" t="s">
+        <v>2</v>
+      </c>
+      <c r="L458" t="s">
+        <v>2</v>
+      </c>
+      <c r="M458" t="s">
+        <v>2</v>
+      </c>
+      <c r="N458" t="s">
+        <v>2</v>
+      </c>
+      <c r="O458" t="s">
+        <v>3</v>
+      </c>
+      <c r="P458" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>3</v>
+      </c>
+      <c r="R458" t="s">
+        <v>2</v>
+      </c>
+      <c r="S458" t="s">
+        <v>2</v>
+      </c>
+      <c r="T458" t="s">
+        <v>2</v>
+      </c>
+      <c r="U458" t="s">
+        <v>2</v>
+      </c>
+      <c r="V458" t="s">
+        <v>2</v>
+      </c>
+      <c r="W458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>18</v>
+      </c>
+      <c r="C459" t="s">
+        <v>2</v>
+      </c>
+      <c r="D459" t="s">
+        <v>2</v>
+      </c>
+      <c r="E459" t="s">
+        <v>2</v>
+      </c>
+      <c r="F459" t="s">
+        <v>3</v>
+      </c>
+      <c r="G459" t="s">
+        <v>2</v>
+      </c>
+      <c r="H459" t="s">
+        <v>3</v>
+      </c>
+      <c r="I459" t="s">
+        <v>2</v>
+      </c>
+      <c r="J459" t="s">
+        <v>2</v>
+      </c>
+      <c r="K459" t="s">
+        <v>3</v>
+      </c>
+      <c r="L459" t="s">
+        <v>2</v>
+      </c>
+      <c r="M459" t="s">
+        <v>2</v>
+      </c>
+      <c r="N459" t="s">
+        <v>2</v>
+      </c>
+      <c r="O459" t="s">
+        <v>3</v>
+      </c>
+      <c r="P459" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>3</v>
+      </c>
+      <c r="R459" t="s">
+        <v>3</v>
+      </c>
+      <c r="S459" t="s">
+        <v>3</v>
+      </c>
+      <c r="T459" t="s">
+        <v>2</v>
+      </c>
+      <c r="U459" t="s">
+        <v>2</v>
+      </c>
+      <c r="V459" t="s">
+        <v>2</v>
+      </c>
+      <c r="W459" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>25</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2</v>
+      </c>
+      <c r="E460" t="s">
+        <v>3</v>
+      </c>
+      <c r="F460" t="s">
+        <v>3</v>
+      </c>
+      <c r="G460" t="s">
+        <v>2</v>
+      </c>
+      <c r="H460" t="s">
+        <v>3</v>
+      </c>
+      <c r="I460" t="s">
+        <v>3</v>
+      </c>
+      <c r="J460" t="s">
+        <v>3</v>
+      </c>
+      <c r="K460" t="s">
+        <v>3</v>
+      </c>
+      <c r="L460" t="s">
+        <v>2</v>
+      </c>
+      <c r="M460" t="s">
+        <v>2</v>
+      </c>
+      <c r="N460" t="s">
+        <v>2</v>
+      </c>
+      <c r="O460" t="s">
+        <v>3</v>
+      </c>
+      <c r="P460" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>3</v>
+      </c>
+      <c r="R460" t="s">
+        <v>3</v>
+      </c>
+      <c r="S460" t="s">
+        <v>2</v>
+      </c>
+      <c r="T460" t="s">
+        <v>3</v>
+      </c>
+      <c r="U460" t="s">
+        <v>3</v>
+      </c>
+      <c r="V460" t="s">
+        <v>3</v>
+      </c>
+      <c r="W460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>26</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3</v>
+      </c>
+      <c r="D461" t="s">
+        <v>2</v>
+      </c>
+      <c r="E461" t="s">
+        <v>3</v>
+      </c>
+      <c r="F461" t="s">
+        <v>3</v>
+      </c>
+      <c r="G461" t="s">
+        <v>2</v>
+      </c>
+      <c r="H461" t="s">
+        <v>3</v>
+      </c>
+      <c r="I461" t="s">
+        <v>2</v>
+      </c>
+      <c r="J461" t="s">
+        <v>3</v>
+      </c>
+      <c r="K461" t="s">
+        <v>3</v>
+      </c>
+      <c r="L461" t="s">
+        <v>2</v>
+      </c>
+      <c r="M461" t="s">
+        <v>2</v>
+      </c>
+      <c r="N461" t="s">
+        <v>2</v>
+      </c>
+      <c r="O461" t="s">
+        <v>3</v>
+      </c>
+      <c r="P461" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>3</v>
+      </c>
+      <c r="R461" t="s">
+        <v>3</v>
+      </c>
+      <c r="S461" t="s">
+        <v>2</v>
+      </c>
+      <c r="T461" t="s">
+        <v>3</v>
+      </c>
+      <c r="U461" t="s">
+        <v>3</v>
+      </c>
+      <c r="V461" t="s">
+        <v>3</v>
+      </c>
+      <c r="W461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>25</v>
+      </c>
+      <c r="C462" t="s">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>2</v>
+      </c>
+      <c r="E462" t="s">
+        <v>3</v>
+      </c>
+      <c r="F462" t="s">
+        <v>3</v>
+      </c>
+      <c r="G462" t="s">
+        <v>2</v>
+      </c>
+      <c r="H462" t="s">
+        <v>3</v>
+      </c>
+      <c r="I462" t="s">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>2</v>
+      </c>
+      <c r="K462" t="s">
+        <v>3</v>
+      </c>
+      <c r="L462" t="s">
+        <v>3</v>
+      </c>
+      <c r="M462" t="s">
+        <v>2</v>
+      </c>
+      <c r="N462" t="s">
+        <v>2</v>
+      </c>
+      <c r="O462" t="s">
+        <v>3</v>
+      </c>
+      <c r="P462" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>3</v>
+      </c>
+      <c r="R462" t="s">
+        <v>2</v>
+      </c>
+      <c r="S462" t="s">
+        <v>2</v>
+      </c>
+      <c r="T462" t="s">
+        <v>2</v>
+      </c>
+      <c r="U462" t="s">
+        <v>2</v>
+      </c>
+      <c r="V462" t="s">
+        <v>2</v>
+      </c>
+      <c r="W462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>25</v>
+      </c>
+      <c r="C463" t="s">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2</v>
+      </c>
+      <c r="E463" t="s">
+        <v>3</v>
+      </c>
+      <c r="F463" t="s">
+        <v>3</v>
+      </c>
+      <c r="G463" t="s">
+        <v>2</v>
+      </c>
+      <c r="H463" t="s">
+        <v>3</v>
+      </c>
+      <c r="I463" t="s">
+        <v>2</v>
+      </c>
+      <c r="J463" t="s">
+        <v>2</v>
+      </c>
+      <c r="K463" t="s">
+        <v>3</v>
+      </c>
+      <c r="L463" t="s">
+        <v>2</v>
+      </c>
+      <c r="M463" t="s">
+        <v>2</v>
+      </c>
+      <c r="N463" t="s">
+        <v>2</v>
+      </c>
+      <c r="O463" t="s">
+        <v>3</v>
+      </c>
+      <c r="P463" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>3</v>
+      </c>
+      <c r="R463" t="s">
+        <v>3</v>
+      </c>
+      <c r="S463" t="s">
+        <v>3</v>
+      </c>
+      <c r="T463" t="s">
+        <v>2</v>
+      </c>
+      <c r="U463" t="s">
+        <v>2</v>
+      </c>
+      <c r="V463" t="s">
+        <v>2</v>
+      </c>
+      <c r="W463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>14</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3</v>
+      </c>
+      <c r="E464" t="s">
+        <v>3</v>
+      </c>
+      <c r="F464" t="s">
+        <v>2</v>
+      </c>
+      <c r="G464" t="s">
+        <v>2</v>
+      </c>
+      <c r="H464" t="s">
+        <v>3</v>
+      </c>
+      <c r="I464" t="s">
+        <v>3</v>
+      </c>
+      <c r="J464" t="s">
+        <v>3</v>
+      </c>
+      <c r="K464" t="s">
+        <v>3</v>
+      </c>
+      <c r="L464" t="s">
+        <v>2</v>
+      </c>
+      <c r="M464" t="s">
+        <v>3</v>
+      </c>
+      <c r="N464" t="s">
+        <v>2</v>
+      </c>
+      <c r="O464" t="s">
+        <v>3</v>
+      </c>
+      <c r="P464" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>2</v>
+      </c>
+      <c r="R464" t="s">
+        <v>3</v>
+      </c>
+      <c r="S464" t="s">
+        <v>3</v>
+      </c>
+      <c r="T464" t="s">
+        <v>3</v>
+      </c>
+      <c r="U464" t="s">
+        <v>3</v>
+      </c>
+      <c r="V464" t="s">
+        <v>3</v>
+      </c>
+      <c r="W464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>36</v>
+      </c>
+      <c r="C465" t="s">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>2</v>
+      </c>
+      <c r="E465" t="s">
+        <v>3</v>
+      </c>
+      <c r="F465" t="s">
+        <v>3</v>
+      </c>
+      <c r="G465" t="s">
+        <v>2</v>
+      </c>
+      <c r="H465" t="s">
+        <v>3</v>
+      </c>
+      <c r="I465" t="s">
+        <v>2</v>
+      </c>
+      <c r="J465" t="s">
+        <v>3</v>
+      </c>
+      <c r="K465" t="s">
+        <v>3</v>
+      </c>
+      <c r="L465" t="s">
+        <v>2</v>
+      </c>
+      <c r="M465" t="s">
+        <v>3</v>
+      </c>
+      <c r="N465" t="s">
+        <v>2</v>
+      </c>
+      <c r="O465" t="s">
+        <v>3</v>
+      </c>
+      <c r="P465" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>3</v>
+      </c>
+      <c r="R465" t="s">
+        <v>3</v>
+      </c>
+      <c r="S465" t="s">
+        <v>2</v>
+      </c>
+      <c r="T465" t="s">
+        <v>3</v>
+      </c>
+      <c r="U465" t="s">
+        <v>2</v>
+      </c>
+      <c r="V465" t="s">
+        <v>3</v>
+      </c>
+      <c r="W465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>45</v>
+      </c>
+      <c r="C466" t="s">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2</v>
+      </c>
+      <c r="E466" t="s">
+        <v>3</v>
+      </c>
+      <c r="F466" t="s">
+        <v>2</v>
+      </c>
+      <c r="G466" t="s">
+        <v>2</v>
+      </c>
+      <c r="H466" t="s">
+        <v>3</v>
+      </c>
+      <c r="I466" t="s">
+        <v>3</v>
+      </c>
+      <c r="J466" t="s">
+        <v>3</v>
+      </c>
+      <c r="K466" t="s">
+        <v>3</v>
+      </c>
+      <c r="L466" t="s">
+        <v>3</v>
+      </c>
+      <c r="M466" t="s">
+        <v>3</v>
+      </c>
+      <c r="N466" t="s">
+        <v>3</v>
+      </c>
+      <c r="O466" t="s">
+        <v>3</v>
+      </c>
+      <c r="P466" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>2</v>
+      </c>
+      <c r="R466" t="s">
+        <v>2</v>
+      </c>
+      <c r="S466" t="s">
+        <v>3</v>
+      </c>
+      <c r="T466" t="s">
+        <v>2</v>
+      </c>
+      <c r="U466" t="s">
+        <v>3</v>
+      </c>
+      <c r="V466" t="s">
+        <v>3</v>
+      </c>
+      <c r="W466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>45</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2</v>
+      </c>
+      <c r="E467" t="s">
+        <v>3</v>
+      </c>
+      <c r="F467" t="s">
+        <v>2</v>
+      </c>
+      <c r="G467" t="s">
+        <v>2</v>
+      </c>
+      <c r="H467" t="s">
+        <v>3</v>
+      </c>
+      <c r="I467" t="s">
+        <v>3</v>
+      </c>
+      <c r="J467" t="s">
+        <v>3</v>
+      </c>
+      <c r="K467" t="s">
+        <v>3</v>
+      </c>
+      <c r="L467" t="s">
+        <v>3</v>
+      </c>
+      <c r="M467" t="s">
+        <v>3</v>
+      </c>
+      <c r="N467" t="s">
+        <v>3</v>
+      </c>
+      <c r="O467" t="s">
+        <v>3</v>
+      </c>
+      <c r="P467" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>2</v>
+      </c>
+      <c r="R467" t="s">
+        <v>2</v>
+      </c>
+      <c r="S467" t="s">
+        <v>3</v>
+      </c>
+      <c r="T467" t="s">
+        <v>2</v>
+      </c>
+      <c r="U467" t="s">
+        <v>3</v>
+      </c>
+      <c r="V467" t="s">
+        <v>3</v>
+      </c>
+      <c r="W467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>22</v>
+      </c>
+      <c r="C468" t="s">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" t="s">
+        <v>3</v>
+      </c>
+      <c r="F468" t="s">
+        <v>3</v>
+      </c>
+      <c r="G468" t="s">
+        <v>2</v>
+      </c>
+      <c r="H468" t="s">
+        <v>3</v>
+      </c>
+      <c r="I468" t="s">
+        <v>3</v>
+      </c>
+      <c r="J468" t="s">
+        <v>3</v>
+      </c>
+      <c r="K468" t="s">
+        <v>3</v>
+      </c>
+      <c r="L468" t="s">
+        <v>2</v>
+      </c>
+      <c r="M468" t="s">
+        <v>3</v>
+      </c>
+      <c r="N468" t="s">
+        <v>3</v>
+      </c>
+      <c r="O468" t="s">
+        <v>3</v>
+      </c>
+      <c r="P468" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>3</v>
+      </c>
+      <c r="R468" t="s">
+        <v>3</v>
+      </c>
+      <c r="S468" t="s">
+        <v>3</v>
+      </c>
+      <c r="T468" t="s">
+        <v>3</v>
+      </c>
+      <c r="U468" t="s">
+        <v>3</v>
+      </c>
+      <c r="V468" t="s">
+        <v>3</v>
+      </c>
+      <c r="W468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>70</v>
+      </c>
+      <c r="C469" t="s">
+        <v>2</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3</v>
+      </c>
+      <c r="E469" t="s">
+        <v>3</v>
+      </c>
+      <c r="F469" t="s">
+        <v>3</v>
+      </c>
+      <c r="G469" t="s">
+        <v>2</v>
+      </c>
+      <c r="H469" t="s">
+        <v>3</v>
+      </c>
+      <c r="I469" t="s">
+        <v>2</v>
+      </c>
+      <c r="J469" t="s">
+        <v>2</v>
+      </c>
+      <c r="K469" t="s">
+        <v>2</v>
+      </c>
+      <c r="L469" t="s">
+        <v>2</v>
+      </c>
+      <c r="M469" t="s">
+        <v>2</v>
+      </c>
+      <c r="N469" t="s">
+        <v>3</v>
+      </c>
+      <c r="O469" t="s">
+        <v>2</v>
+      </c>
+      <c r="P469" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>3</v>
+      </c>
+      <c r="R469" t="s">
+        <v>3</v>
+      </c>
+      <c r="S469" t="s">
+        <v>3</v>
+      </c>
+      <c r="T469" t="s">
+        <v>2</v>
+      </c>
+      <c r="U469" t="s">
+        <v>3</v>
+      </c>
+      <c r="V469" t="s">
+        <v>3</v>
+      </c>
+      <c r="W469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>70</v>
+      </c>
+      <c r="C470" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470" t="s">
+        <v>3</v>
+      </c>
+      <c r="F470" t="s">
+        <v>3</v>
+      </c>
+      <c r="G470" t="s">
+        <v>2</v>
+      </c>
+      <c r="H470" t="s">
+        <v>3</v>
+      </c>
+      <c r="I470" t="s">
+        <v>2</v>
+      </c>
+      <c r="J470" t="s">
+        <v>2</v>
+      </c>
+      <c r="K470" t="s">
+        <v>2</v>
+      </c>
+      <c r="L470" t="s">
+        <v>2</v>
+      </c>
+      <c r="M470" t="s">
+        <v>2</v>
+      </c>
+      <c r="N470" t="s">
+        <v>3</v>
+      </c>
+      <c r="O470" t="s">
+        <v>2</v>
+      </c>
+      <c r="P470" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q470" t="s">
+        <v>3</v>
+      </c>
+      <c r="R470" t="s">
+        <v>3</v>
+      </c>
+      <c r="S470" t="s">
+        <v>3</v>
+      </c>
+      <c r="T470" t="s">
+        <v>2</v>
+      </c>
+      <c r="U470" t="s">
+        <v>3</v>
+      </c>
+      <c r="V470" t="s">
+        <v>3</v>
+      </c>
+      <c r="W470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>62</v>
+      </c>
+      <c r="C471" t="s">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2</v>
+      </c>
+      <c r="E471" t="s">
+        <v>3</v>
+      </c>
+      <c r="F471" t="s">
+        <v>2</v>
+      </c>
+      <c r="G471" t="s">
+        <v>2</v>
+      </c>
+      <c r="H471" t="s">
+        <v>2</v>
+      </c>
+      <c r="I471" t="s">
+        <v>2</v>
+      </c>
+      <c r="J471" t="s">
+        <v>2</v>
+      </c>
+      <c r="K471" t="s">
+        <v>2</v>
+      </c>
+      <c r="L471" t="s">
+        <v>2</v>
+      </c>
+      <c r="M471" t="s">
+        <v>2</v>
+      </c>
+      <c r="N471" t="s">
+        <v>2</v>
+      </c>
+      <c r="O471" t="s">
+        <v>2</v>
+      </c>
+      <c r="P471" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>3</v>
+      </c>
+      <c r="R471" t="s">
+        <v>3</v>
+      </c>
+      <c r="S471" t="s">
+        <v>3</v>
+      </c>
+      <c r="T471" t="s">
+        <v>2</v>
+      </c>
+      <c r="U471" t="s">
+        <v>2</v>
+      </c>
+      <c r="V471" t="s">
+        <v>2</v>
+      </c>
+      <c r="W471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>30</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>2</v>
+      </c>
+      <c r="E472" t="s">
+        <v>3</v>
+      </c>
+      <c r="F472" t="s">
+        <v>3</v>
+      </c>
+      <c r="G472" t="s">
+        <v>2</v>
+      </c>
+      <c r="H472" t="s">
+        <v>3</v>
+      </c>
+      <c r="I472" t="s">
+        <v>2</v>
+      </c>
+      <c r="J472" t="s">
+        <v>2</v>
+      </c>
+      <c r="K472" t="s">
+        <v>3</v>
+      </c>
+      <c r="L472" t="s">
+        <v>3</v>
+      </c>
+      <c r="M472" t="s">
+        <v>2</v>
+      </c>
+      <c r="N472" t="s">
+        <v>3</v>
+      </c>
+      <c r="O472" t="s">
+        <v>3</v>
+      </c>
+      <c r="P472" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>3</v>
+      </c>
+      <c r="R472" t="s">
+        <v>3</v>
+      </c>
+      <c r="S472" t="s">
+        <v>3</v>
+      </c>
+      <c r="T472" t="s">
+        <v>2</v>
+      </c>
+      <c r="U472" t="s">
+        <v>2</v>
+      </c>
+      <c r="V472" t="s">
+        <v>2</v>
+      </c>
+      <c r="W472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>45</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" t="s">
+        <v>3</v>
+      </c>
+      <c r="F473" t="s">
+        <v>3</v>
+      </c>
+      <c r="G473" t="s">
+        <v>2</v>
+      </c>
+      <c r="H473" t="s">
+        <v>2</v>
+      </c>
+      <c r="I473" t="s">
+        <v>2</v>
+      </c>
+      <c r="J473" t="s">
+        <v>3</v>
+      </c>
+      <c r="K473" t="s">
+        <v>3</v>
+      </c>
+      <c r="L473" t="s">
+        <v>2</v>
+      </c>
+      <c r="M473" t="s">
+        <v>2</v>
+      </c>
+      <c r="N473" t="s">
+        <v>2</v>
+      </c>
+      <c r="O473" t="s">
+        <v>3</v>
+      </c>
+      <c r="P473" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>3</v>
+      </c>
+      <c r="R473" t="s">
+        <v>3</v>
+      </c>
+      <c r="S473" t="s">
+        <v>3</v>
+      </c>
+      <c r="T473" t="s">
+        <v>3</v>
+      </c>
+      <c r="U473" t="s">
+        <v>3</v>
+      </c>
+      <c r="V473" t="s">
+        <v>2</v>
+      </c>
+      <c r="W473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>30</v>
+      </c>
+      <c r="C474" t="s">
+        <v>2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>2</v>
+      </c>
+      <c r="E474" t="s">
+        <v>3</v>
+      </c>
+      <c r="F474" t="s">
+        <v>3</v>
+      </c>
+      <c r="G474" t="s">
+        <v>2</v>
+      </c>
+      <c r="H474" t="s">
+        <v>3</v>
+      </c>
+      <c r="I474" t="s">
+        <v>2</v>
+      </c>
+      <c r="J474" t="s">
+        <v>2</v>
+      </c>
+      <c r="K474" t="s">
+        <v>3</v>
+      </c>
+      <c r="L474" t="s">
+        <v>3</v>
+      </c>
+      <c r="M474" t="s">
+        <v>2</v>
+      </c>
+      <c r="N474" t="s">
+        <v>3</v>
+      </c>
+      <c r="O474" t="s">
+        <v>3</v>
+      </c>
+      <c r="P474" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q474" t="s">
+        <v>3</v>
+      </c>
+      <c r="R474" t="s">
+        <v>3</v>
+      </c>
+      <c r="S474" t="s">
+        <v>3</v>
+      </c>
+      <c r="T474" t="s">
+        <v>2</v>
+      </c>
+      <c r="U474" t="s">
+        <v>2</v>
+      </c>
+      <c r="V474" t="s">
+        <v>2</v>
+      </c>
+      <c r="W474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>22</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2</v>
+      </c>
+      <c r="E475" t="s">
+        <v>3</v>
+      </c>
+      <c r="F475" t="s">
+        <v>3</v>
+      </c>
+      <c r="G475" t="s">
+        <v>2</v>
+      </c>
+      <c r="H475" t="s">
+        <v>3</v>
+      </c>
+      <c r="I475" t="s">
+        <v>3</v>
+      </c>
+      <c r="J475" t="s">
+        <v>3</v>
+      </c>
+      <c r="K475" t="s">
+        <v>3</v>
+      </c>
+      <c r="L475" t="s">
+        <v>3</v>
+      </c>
+      <c r="M475" t="s">
+        <v>2</v>
+      </c>
+      <c r="N475" t="s">
+        <v>2</v>
+      </c>
+      <c r="O475" t="s">
+        <v>3</v>
+      </c>
+      <c r="P475" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>3</v>
+      </c>
+      <c r="R475" t="s">
+        <v>3</v>
+      </c>
+      <c r="S475" t="s">
+        <v>3</v>
+      </c>
+      <c r="T475" t="s">
+        <v>2</v>
+      </c>
+      <c r="U475" t="s">
+        <v>2</v>
+      </c>
+      <c r="V475" t="s">
+        <v>3</v>
+      </c>
+      <c r="W475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>22</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2</v>
+      </c>
+      <c r="E476" t="s">
+        <v>3</v>
+      </c>
+      <c r="F476" t="s">
+        <v>3</v>
+      </c>
+      <c r="G476" t="s">
+        <v>2</v>
+      </c>
+      <c r="H476" t="s">
+        <v>3</v>
+      </c>
+      <c r="I476" t="s">
+        <v>3</v>
+      </c>
+      <c r="J476" t="s">
+        <v>3</v>
+      </c>
+      <c r="K476" t="s">
+        <v>3</v>
+      </c>
+      <c r="L476" t="s">
+        <v>3</v>
+      </c>
+      <c r="M476" t="s">
+        <v>2</v>
+      </c>
+      <c r="N476" t="s">
+        <v>2</v>
+      </c>
+      <c r="O476" t="s">
+        <v>3</v>
+      </c>
+      <c r="P476" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>3</v>
+      </c>
+      <c r="R476" t="s">
+        <v>3</v>
+      </c>
+      <c r="S476" t="s">
+        <v>3</v>
+      </c>
+      <c r="T476" t="s">
+        <v>2</v>
+      </c>
+      <c r="U476" t="s">
+        <v>2</v>
+      </c>
+      <c r="V476" t="s">
+        <v>3</v>
+      </c>
+      <c r="W476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>26</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2</v>
+      </c>
+      <c r="E477" t="s">
+        <v>3</v>
+      </c>
+      <c r="F477" t="s">
+        <v>3</v>
+      </c>
+      <c r="G477" t="s">
+        <v>2</v>
+      </c>
+      <c r="H477" t="s">
+        <v>2</v>
+      </c>
+      <c r="I477" t="s">
+        <v>2</v>
+      </c>
+      <c r="J477" t="s">
+        <v>2</v>
+      </c>
+      <c r="K477" t="s">
+        <v>2</v>
+      </c>
+      <c r="L477" t="s">
+        <v>2</v>
+      </c>
+      <c r="M477" t="s">
+        <v>2</v>
+      </c>
+      <c r="N477" t="s">
+        <v>3</v>
+      </c>
+      <c r="O477" t="s">
+        <v>2</v>
+      </c>
+      <c r="P477" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q477" t="s">
+        <v>3</v>
+      </c>
+      <c r="R477" t="s">
+        <v>3</v>
+      </c>
+      <c r="S477" t="s">
+        <v>3</v>
+      </c>
+      <c r="T477" t="s">
+        <v>2</v>
+      </c>
+      <c r="U477" t="s">
+        <v>2</v>
+      </c>
+      <c r="V477" t="s">
+        <v>2</v>
+      </c>
+      <c r="W477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>23</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2</v>
+      </c>
+      <c r="E478" t="s">
+        <v>3</v>
+      </c>
+      <c r="F478" t="s">
+        <v>3</v>
+      </c>
+      <c r="G478" t="s">
+        <v>2</v>
+      </c>
+      <c r="H478" t="s">
+        <v>3</v>
+      </c>
+      <c r="I478" t="s">
+        <v>2</v>
+      </c>
+      <c r="J478" t="s">
+        <v>2</v>
+      </c>
+      <c r="K478" t="s">
+        <v>3</v>
+      </c>
+      <c r="L478" t="s">
+        <v>2</v>
+      </c>
+      <c r="M478" t="s">
+        <v>2</v>
+      </c>
+      <c r="N478" t="s">
+        <v>2</v>
+      </c>
+      <c r="O478" t="s">
+        <v>2</v>
+      </c>
+      <c r="P478" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q478" t="s">
+        <v>3</v>
+      </c>
+      <c r="R478" t="s">
+        <v>3</v>
+      </c>
+      <c r="S478" t="s">
+        <v>3</v>
+      </c>
+      <c r="T478" t="s">
+        <v>3</v>
+      </c>
+      <c r="U478" t="s">
+        <v>2</v>
+      </c>
+      <c r="V478" t="s">
+        <v>2</v>
+      </c>
+      <c r="W478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>25</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2</v>
+      </c>
+      <c r="E479" t="s">
+        <v>3</v>
+      </c>
+      <c r="F479" t="s">
+        <v>2</v>
+      </c>
+      <c r="G479" t="s">
+        <v>2</v>
+      </c>
+      <c r="H479" t="s">
+        <v>3</v>
+      </c>
+      <c r="I479" t="s">
+        <v>2</v>
+      </c>
+      <c r="J479" t="s">
+        <v>2</v>
+      </c>
+      <c r="K479" t="s">
+        <v>2</v>
+      </c>
+      <c r="L479" t="s">
+        <v>2</v>
+      </c>
+      <c r="M479" t="s">
+        <v>2</v>
+      </c>
+      <c r="N479" t="s">
+        <v>2</v>
+      </c>
+      <c r="O479" t="s">
+        <v>2</v>
+      </c>
+      <c r="P479" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q479" t="s">
+        <v>3</v>
+      </c>
+      <c r="R479" t="s">
+        <v>3</v>
+      </c>
+      <c r="S479" t="s">
+        <v>3</v>
+      </c>
+      <c r="T479" t="s">
+        <v>2</v>
+      </c>
+      <c r="U479" t="s">
+        <v>2</v>
+      </c>
+      <c r="V479" t="s">
+        <v>2</v>
+      </c>
+      <c r="W479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>23</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2</v>
+      </c>
+      <c r="E480" t="s">
+        <v>2</v>
+      </c>
+      <c r="F480" t="s">
+        <v>2</v>
+      </c>
+      <c r="G480" t="s">
+        <v>2</v>
+      </c>
+      <c r="H480" t="s">
+        <v>3</v>
+      </c>
+      <c r="I480" t="s">
+        <v>2</v>
+      </c>
+      <c r="J480" t="s">
+        <v>2</v>
+      </c>
+      <c r="K480" t="s">
+        <v>2</v>
+      </c>
+      <c r="L480" t="s">
+        <v>2</v>
+      </c>
+      <c r="M480" t="s">
+        <v>2</v>
+      </c>
+      <c r="N480" t="s">
+        <v>2</v>
+      </c>
+      <c r="O480" t="s">
+        <v>2</v>
+      </c>
+      <c r="P480" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>2</v>
+      </c>
+      <c r="R480" t="s">
+        <v>2</v>
+      </c>
+      <c r="S480" t="s">
+        <v>3</v>
+      </c>
+      <c r="T480" t="s">
+        <v>2</v>
+      </c>
+      <c r="U480" t="s">
+        <v>3</v>
+      </c>
+      <c r="V480" t="s">
+        <v>3</v>
+      </c>
+      <c r="W480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>28</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
+      </c>
+      <c r="D481" t="s">
+        <v>3</v>
+      </c>
+      <c r="E481" t="s">
+        <v>3</v>
+      </c>
+      <c r="F481" t="s">
+        <v>3</v>
+      </c>
+      <c r="G481" t="s">
+        <v>2</v>
+      </c>
+      <c r="H481" t="s">
+        <v>3</v>
+      </c>
+      <c r="I481" t="s">
+        <v>2</v>
+      </c>
+      <c r="J481" t="s">
+        <v>2</v>
+      </c>
+      <c r="K481" t="s">
+        <v>2</v>
+      </c>
+      <c r="L481" t="s">
+        <v>2</v>
+      </c>
+      <c r="M481" t="s">
+        <v>2</v>
+      </c>
+      <c r="N481" t="s">
+        <v>3</v>
+      </c>
+      <c r="O481" t="s">
+        <v>2</v>
+      </c>
+      <c r="P481" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>3</v>
+      </c>
+      <c r="R481" t="s">
+        <v>3</v>
+      </c>
+      <c r="S481" t="s">
+        <v>3</v>
+      </c>
+      <c r="T481" t="s">
+        <v>2</v>
+      </c>
+      <c r="U481" t="s">
+        <v>2</v>
+      </c>
+      <c r="V481" t="s">
+        <v>2</v>
+      </c>
+      <c r="W481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>35</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2</v>
+      </c>
+      <c r="E482" t="s">
+        <v>3</v>
+      </c>
+      <c r="F482" t="s">
+        <v>3</v>
+      </c>
+      <c r="G482" t="s">
+        <v>2</v>
+      </c>
+      <c r="H482" t="s">
+        <v>3</v>
+      </c>
+      <c r="I482" t="s">
+        <v>2</v>
+      </c>
+      <c r="J482" t="s">
+        <v>2</v>
+      </c>
+      <c r="K482" t="s">
+        <v>2</v>
+      </c>
+      <c r="L482" t="s">
+        <v>3</v>
+      </c>
+      <c r="M482" t="s">
+        <v>2</v>
+      </c>
+      <c r="N482" t="s">
+        <v>3</v>
+      </c>
+      <c r="O482" t="s">
+        <v>2</v>
+      </c>
+      <c r="P482" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q482" t="s">
+        <v>3</v>
+      </c>
+      <c r="R482" t="s">
+        <v>3</v>
+      </c>
+      <c r="S482" t="s">
+        <v>3</v>
+      </c>
+      <c r="T482" t="s">
+        <v>2</v>
+      </c>
+      <c r="U482" t="s">
+        <v>2</v>
+      </c>
+      <c r="V482" t="s">
+        <v>2</v>
+      </c>
+      <c r="W482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>33</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2</v>
+      </c>
+      <c r="E483" t="s">
+        <v>3</v>
+      </c>
+      <c r="F483" t="s">
+        <v>3</v>
+      </c>
+      <c r="G483" t="s">
+        <v>2</v>
+      </c>
+      <c r="H483" t="s">
+        <v>3</v>
+      </c>
+      <c r="I483" t="s">
+        <v>2</v>
+      </c>
+      <c r="J483" t="s">
+        <v>2</v>
+      </c>
+      <c r="K483" t="s">
+        <v>2</v>
+      </c>
+      <c r="L483" t="s">
+        <v>2</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2</v>
+      </c>
+      <c r="N483" t="s">
+        <v>3</v>
+      </c>
+      <c r="O483" t="s">
+        <v>3</v>
+      </c>
+      <c r="P483" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q483" t="s">
+        <v>3</v>
+      </c>
+      <c r="R483" t="s">
+        <v>3</v>
+      </c>
+      <c r="S483" t="s">
+        <v>2</v>
+      </c>
+      <c r="T483" t="s">
+        <v>2</v>
+      </c>
+      <c r="U483" t="s">
+        <v>2</v>
+      </c>
+      <c r="V483" t="s">
+        <v>2</v>
+      </c>
+      <c r="W483" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>26</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2</v>
+      </c>
+      <c r="E484" t="s">
+        <v>3</v>
+      </c>
+      <c r="F484" t="s">
+        <v>3</v>
+      </c>
+      <c r="G484" t="s">
+        <v>3</v>
+      </c>
+      <c r="H484" t="s">
+        <v>3</v>
+      </c>
+      <c r="I484" t="s">
+        <v>2</v>
+      </c>
+      <c r="J484" t="s">
+        <v>2</v>
+      </c>
+      <c r="K484" t="s">
+        <v>2</v>
+      </c>
+      <c r="L484" t="s">
+        <v>2</v>
+      </c>
+      <c r="M484" t="s">
+        <v>2</v>
+      </c>
+      <c r="N484" t="s">
+        <v>2</v>
+      </c>
+      <c r="O484" t="s">
+        <v>3</v>
+      </c>
+      <c r="P484" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q484" t="s">
+        <v>3</v>
+      </c>
+      <c r="R484" t="s">
+        <v>2</v>
+      </c>
+      <c r="S484" t="s">
+        <v>2</v>
+      </c>
+      <c r="T484" t="s">
+        <v>3</v>
+      </c>
+      <c r="U484" t="s">
+        <v>3</v>
+      </c>
+      <c r="V484" t="s">
+        <v>3</v>
+      </c>
+      <c r="W484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>51</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3</v>
+      </c>
+      <c r="E485" t="s">
+        <v>3</v>
+      </c>
+      <c r="F485" t="s">
+        <v>3</v>
+      </c>
+      <c r="G485" t="s">
+        <v>2</v>
+      </c>
+      <c r="H485" t="s">
+        <v>2</v>
+      </c>
+      <c r="I485" t="s">
+        <v>3</v>
+      </c>
+      <c r="J485" t="s">
+        <v>3</v>
+      </c>
+      <c r="K485" t="s">
+        <v>2</v>
+      </c>
+      <c r="L485" t="s">
+        <v>2</v>
+      </c>
+      <c r="M485" t="s">
+        <v>2</v>
+      </c>
+      <c r="N485" t="s">
+        <v>3</v>
+      </c>
+      <c r="O485" t="s">
+        <v>2</v>
+      </c>
+      <c r="P485" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q485" t="s">
+        <v>3</v>
+      </c>
+      <c r="R485" t="s">
+        <v>3</v>
+      </c>
+      <c r="S485" t="s">
+        <v>3</v>
+      </c>
+      <c r="T485" t="s">
+        <v>2</v>
+      </c>
+      <c r="U485" t="s">
+        <v>2</v>
+      </c>
+      <c r="V485" t="s">
+        <v>2</v>
+      </c>
+      <c r="W485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>32</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3</v>
+      </c>
+      <c r="D486" t="s">
+        <v>3</v>
+      </c>
+      <c r="E486" t="s">
+        <v>3</v>
+      </c>
+      <c r="F486" t="s">
+        <v>3</v>
+      </c>
+      <c r="G486" t="s">
+        <v>2</v>
+      </c>
+      <c r="H486" t="s">
+        <v>3</v>
+      </c>
+      <c r="I486" t="s">
+        <v>2</v>
+      </c>
+      <c r="J486" t="s">
+        <v>2</v>
+      </c>
+      <c r="K486" t="s">
+        <v>2</v>
+      </c>
+      <c r="L486" t="s">
+        <v>2</v>
+      </c>
+      <c r="M486" t="s">
+        <v>2</v>
+      </c>
+      <c r="N486" t="s">
+        <v>2</v>
+      </c>
+      <c r="O486" t="s">
+        <v>2</v>
+      </c>
+      <c r="P486" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>3</v>
+      </c>
+      <c r="R486" t="s">
+        <v>3</v>
+      </c>
+      <c r="S486" t="s">
+        <v>2</v>
+      </c>
+      <c r="T486" t="s">
+        <v>2</v>
+      </c>
+      <c r="U486" t="s">
+        <v>2</v>
+      </c>
+      <c r="V486" t="s">
+        <v>2</v>
+      </c>
+      <c r="W486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>30</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3</v>
+      </c>
+      <c r="D487" t="s">
+        <v>3</v>
+      </c>
+      <c r="E487" t="s">
+        <v>3</v>
+      </c>
+      <c r="F487" t="s">
+        <v>3</v>
+      </c>
+      <c r="G487" t="s">
+        <v>2</v>
+      </c>
+      <c r="H487" t="s">
+        <v>3</v>
+      </c>
+      <c r="I487" t="s">
+        <v>2</v>
+      </c>
+      <c r="J487" t="s">
+        <v>2</v>
+      </c>
+      <c r="K487" t="s">
+        <v>3</v>
+      </c>
+      <c r="L487" t="s">
+        <v>2</v>
+      </c>
+      <c r="M487" t="s">
+        <v>2</v>
+      </c>
+      <c r="N487" t="s">
+        <v>3</v>
+      </c>
+      <c r="O487" t="s">
+        <v>2</v>
+      </c>
+      <c r="P487" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>3</v>
+      </c>
+      <c r="R487" t="s">
+        <v>3</v>
+      </c>
+      <c r="S487" t="s">
+        <v>2</v>
+      </c>
+      <c r="T487" t="s">
+        <v>3</v>
+      </c>
+      <c r="U487" t="s">
+        <v>2</v>
+      </c>
+      <c r="V487" t="s">
+        <v>2</v>
+      </c>
+      <c r="W487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>27</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3</v>
+      </c>
+      <c r="D488" t="s">
+        <v>2</v>
+      </c>
+      <c r="E488" t="s">
+        <v>3</v>
+      </c>
+      <c r="F488" t="s">
+        <v>3</v>
+      </c>
+      <c r="G488" t="s">
+        <v>2</v>
+      </c>
+      <c r="H488" t="s">
+        <v>3</v>
+      </c>
+      <c r="I488" t="s">
+        <v>2</v>
+      </c>
+      <c r="J488" t="s">
+        <v>2</v>
+      </c>
+      <c r="K488" t="s">
+        <v>2</v>
+      </c>
+      <c r="L488" t="s">
+        <v>2</v>
+      </c>
+      <c r="M488" t="s">
+        <v>2</v>
+      </c>
+      <c r="N488" t="s">
+        <v>3</v>
+      </c>
+      <c r="O488" t="s">
+        <v>2</v>
+      </c>
+      <c r="P488" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>3</v>
+      </c>
+      <c r="R488" t="s">
+        <v>3</v>
+      </c>
+      <c r="S488" t="s">
+        <v>2</v>
+      </c>
+      <c r="T488" t="s">
+        <v>3</v>
+      </c>
+      <c r="U488" t="s">
+        <v>2</v>
+      </c>
+      <c r="V488" t="s">
+        <v>3</v>
+      </c>
+      <c r="W488" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
